--- a/doksi/DB adatok.xlsx
+++ b/doksi/DB adatok.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programok\2021\Git\phpartisanmigrate\doksi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phpartisanmigrate\doksi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBEE6EA-FFA9-402D-83B0-81F57CD7216C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18210" activeTab="3" xr2:uid="{B2CFB1EA-7709-4A95-928E-FD7AFDDDC210}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18210" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Addresses" sheetId="5" r:id="rId5"/>
     <sheet name="Foods" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -605,7 +604,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,11 +980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDA05F7-631A-4081-BB8F-F462DE47DA0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +996,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -1011,7 +1010,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
@@ -1102,25 +1101,29 @@
       <c r="E8" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9075CEF4-8A05-4208-85F2-78CA7689FF74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,15 +1368,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{84B53D68-D23A-467C-97EE-D77C022129A9}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{A2BBCB50-D9B2-4D3D-A374-99AB45153D86}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{A2E5C2A0-6280-4658-8E03-7F3BF849B9F0}"/>
-    <hyperlink ref="A7" r:id="rId4" xr:uid="{9D64CB33-C2DC-474F-B530-37D9258AD494}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{5463BCDF-1F2B-4686-9581-E7E976A8396A}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{1BDCA797-8FB1-4B62-ACFF-15EC90094A6A}"/>
-    <hyperlink ref="A10" r:id="rId7" xr:uid="{7ABD272A-0675-465D-AA8D-65AB1B35CBF6}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{F7A0119C-795F-4AA3-9724-F7AADE3B41E0}"/>
-    <hyperlink ref="A12" r:id="rId9" xr:uid="{FB97A68F-DAF2-4B52-BD1E-CF2F1F95CFF3}"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A11" r:id="rId8"/>
+    <hyperlink ref="A12" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId10"/>
@@ -1381,11 +1384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D51EDB-17E4-4A28-B13B-DAF5E1AF2C67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D1" sqref="D1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,27 +1538,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{0B61322E-F3A1-4A31-97B2-C6DB2FF4E92E}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{42F5FEC1-76E8-40DA-BD5C-FAC73FB5D30D}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{8A8B5867-A436-4B62-B05F-D9C8EBA2BA2E}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{3706A348-F98C-4EB4-BF53-702F208D86CB}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{9523A142-7950-4FFD-9128-9C794A16FF3F}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{D815B095-2DDD-45EE-ADED-04744B37807F}"/>
-    <hyperlink ref="A4" r:id="rId7" xr:uid="{6C8F6A43-C495-4990-B98E-90AD75F890A9}"/>
-    <hyperlink ref="A6" r:id="rId8" xr:uid="{354ADC1F-2E14-4A88-AE71-E724E7D049C0}"/>
-    <hyperlink ref="A8" r:id="rId9" xr:uid="{D70E114B-1D93-422E-BC32-A43C68F4E383}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{2B2D593D-2EBB-4A31-BA9B-0A0BE8A738E9}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A4" r:id="rId7"/>
+    <hyperlink ref="A6" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FC1CD-9AEA-453F-AB0B-3421241250C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,11 +1612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFB5BEC-2121-451C-AF7C-D21B389B5F19}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,9 +1625,12 @@
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.140625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1649,8 +1655,20 @@
       <c r="H1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="str">
+        <f>""""&amp;E1&amp;""""</f>
+        <v>"9400 Sopron, Lackner Kristóf u. 35."</v>
+      </c>
+      <c r="J1" t="str">
+        <f>""""&amp;F1&amp;""""</f>
+        <v>"36101234567"</v>
+      </c>
+      <c r="K1" t="str">
+        <f>""""&amp;H1&amp;""""</f>
+        <v>"Szia"</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1672,8 +1690,20 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I12" si="0">""""&amp;E2&amp;""""</f>
+        <v>"9700 Szombathely, Károlyi Gáspár tér 4."</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J12" si="1">""""&amp;F2&amp;""""</f>
+        <v>"36202345678"</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K12" si="2">""""&amp;H2&amp;""""</f>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1695,8 +1725,20 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>"9027 Győr, Budai út 1."</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>"36103456789"</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="2"/>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1721,8 +1763,20 @@
       <c r="H4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>"2347 Bugyi, Rózs u. 1"</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>"36206437357"</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>"ASDF"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1744,8 +1798,20 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>"9796 Pornóapáti, Körmendi u.1"</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>"36106567465"</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1767,8 +1833,20 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>"9735 Csepreg, Rákóczi Ferenc utca 13"</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>"36202345678"</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1793,8 +1871,20 @@
       <c r="H7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>"9700 Szombathely, Károlyi Gáspár tér 4."</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>"36101234567"</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>"Reptééér"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1816,8 +1906,20 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>"9735 Csepreg, Rákóczi Ferenc utca 13"</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>"36205246345"</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1839,8 +1941,20 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>"9700 Szombathely, Károlyi Gáspár tér 4."</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>"36104263572"</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1862,8 +1976,20 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>"9735 Csepreg, Rákóczi Ferenc utca 13"</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>"36205321425"</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1888,8 +2014,20 @@
       <c r="H11">
         <v>404</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>"8419 Csesznek, Várhegyköz 1."</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>"36302342452"</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>"404"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1910,6 +2048,18 @@
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>"9096 Nyalka, Rákóczi út 1."</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>"36706544357"</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
     </row>
   </sheetData>
@@ -1919,20 +2069,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A4310D-0E93-4313-BB6C-D33F3EC9B58E}">
-  <dimension ref="A1:F60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1951,8 +2102,12 @@
       <c r="F1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="str">
+        <f>""""&amp;B1&amp;""""</f>
+        <v>"Hawaii pizza"</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1971,8 +2126,12 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G60" si="0">""""&amp;B2&amp;""""</f>
+        <v>"Hawaii pizza"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1991,8 +2150,12 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hawaii pizza"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2011,8 +2174,12 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hawaii pizza extra ananásszal"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2031,8 +2198,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sonkás pizza"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2051,8 +2222,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sonkás-Gombás pizza"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2071,8 +2246,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sonkás-Kukoricás pizza"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2091,8 +2270,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Szalámis pizza"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2111,8 +2294,12 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>"BBQ pizza"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2131,8 +2318,12 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Vegán pizza"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2151,8 +2342,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Négysajtos pizza"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2171,8 +2366,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tonhalas pizza"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2191,8 +2390,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Mexikói csirkés tészta"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2211,8 +2414,12 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bolognai tészta"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2231,8 +2438,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Milánói tészta"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2251,8 +2462,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>"Carbonara tészta"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2271,8 +2486,12 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cékla-Feta krémes tészta"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2291,8 +2510,12 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Babgulyás"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2311,8 +2534,12 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Babgulyás"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2331,8 +2558,12 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Csirkepöri nokedlivel"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2351,8 +2582,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>"Noki-Pöri"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2371,8 +2606,12 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tökfőzelék"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2391,8 +2630,12 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hagymás bab"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2411,8 +2654,12 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>"Lencsefőzelék"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2431,8 +2678,12 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>"Krumplifőzelék"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2451,8 +2702,12 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>"Spenótfőzelék"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -2471,8 +2726,12 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>"Zöldbabfőzelék"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2491,8 +2750,12 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tojásleves"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2511,8 +2774,12 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>"Húsleves"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2531,8 +2798,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>"Húsleves"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2551,8 +2822,12 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>"Húsleves"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -2571,8 +2846,12 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gyümileves"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -2591,8 +2870,12 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gyümölcsleves"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2611,8 +2894,12 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>"Fokhagymakrémleves"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2631,8 +2918,12 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>"Fokhagymarémleves"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2651,8 +2942,12 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hatlapos"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2671,8 +2966,12 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tizenkétlapos"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2691,8 +2990,12 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>"Négerkocka"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2711,8 +3014,12 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>"Lajcsi szelet"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -2731,8 +3038,12 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tiramisu"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -2751,8 +3062,12 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tiramisu"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -2771,8 +3086,12 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bejgli"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
@@ -2791,8 +3110,12 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sajtburesz"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11</v>
       </c>
@@ -2811,8 +3134,12 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sajtburesz"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -2831,8 +3158,12 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>"Dupla Sajtburesz"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
@@ -2851,8 +3182,12 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>"Big Mac"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -2871,8 +3206,12 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>"Dupla Big Mac"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -2891,8 +3230,12 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sajtburger"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -2911,8 +3254,12 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>"Zinger burger"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -2931,8 +3278,12 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>"Grander burger"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -2951,8 +3302,12 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cheddar Cheese Ring Lover"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
@@ -2971,8 +3326,12 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>"Chicken Bacon King"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -2991,8 +3350,12 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bacon King"</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -3011,8 +3374,12 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nuggets Burger"</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -3031,8 +3398,12 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>"Chili Cheese Crispy Chicken"</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12</v>
       </c>
@@ -3051,8 +3422,12 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>"Csepregi kolesz menü"</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -3071,8 +3446,12 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kelbimbó főzelék"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12</v>
       </c>
@@ -3091,8 +3470,12 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tökfőzelék"</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
@@ -3111,8 +3494,12 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kiwis pizza"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12</v>
       </c>
@@ -3130,6 +3517,10 @@
       </c>
       <c r="F60">
         <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>"Csirkemáj"</v>
       </c>
     </row>
   </sheetData>

--- a/doksi/DB adatok.xlsx
+++ b/doksi/DB adatok.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phpartisanmigrate\doksi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\phpartisanmigrate\doksi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775D11CE-FA41-424F-8B9F-ABF41E1B9A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18210" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,28 @@
     <sheet name="Addresses" sheetId="5" r:id="rId5"/>
     <sheet name="Foods" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="233">
   <si>
     <t>b0xupt@inf.elte.hu</t>
   </si>
@@ -599,12 +611,141 @@
   </si>
   <si>
     <t>Nop</t>
+  </si>
+  <si>
+    <t>https://trofeaonline.com/integ_pictures/NPIZ02_01.jpg</t>
+  </si>
+  <si>
+    <t>https://admin.kemencespizzeria.hu/media/products/201/201424/large/sonkas-gombas.png</t>
+  </si>
+  <si>
+    <t>https://www.tunderkonyha.hu/sites/default/files/sonkas-kukoricas_pizza.jpg</t>
+  </si>
+  <si>
+    <t>https://pizzaflorida.hu/wp-content/uploads/2021/01/Szalamis.jpg</t>
+  </si>
+  <si>
+    <t>https://suebeehomemaker.com/wp-content/uploads/2021/08/bbq-chicken-bacon-pizza-6.jpg</t>
+  </si>
+  <si>
+    <t>https://streetkitchen.hu/wp-content/uploads/2020/04/4-feltetes-vega-pizza-2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.finomvilag.com/wp-content/uploads/2022/11/Konnyu-olasz-negy-sajtos-pizza-parmezannal-es-mozzarellaval.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSTUjqDGPrfJVhdHMkJOQUP2RPIsCK8DX_kXA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://cdn.gastrohobbi.hu/wp-content/uploads/2017/10/IMG_7737.jpg</t>
+  </si>
+  <si>
+    <t>https://img-global.cpcdn.com/recipes/25511bd4a1a6c39d/1200x630cq70/photo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mindmegette.hu/images/336/Social/lead_Social_milani-spagetti.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mindmegette.hu/images/373/Social/lead_Social_carbonara-spagetti-recept.jpg</t>
+  </si>
+  <si>
+    <t>https://assets.unileversolutions.com/recipes-v2/228126.jpg</t>
+  </si>
+  <si>
+    <t>https://mesterszakacs.hu/receptkepek/800/600/egyszeru-csirkeporkolt-5311.jpg</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>https://egytaletelek.hu/wp-content/uploads/Tokfozelek-1.jpg</t>
+  </si>
+  <si>
+    <t>https://egytaletelek.hu/wp-content/uploads/hagymas-bab.jpg</t>
+  </si>
+  <si>
+    <t>https://kep.cdn.index.hu/1/0/3473/34737/347378/34737803_2659107_345ae5cebb7080536f217909627b6e15_wm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mindmegette.hu/images/379/M/lead_M_burgonya-fozelek-recept.jpg</t>
+  </si>
+  <si>
+    <t>https://image-api.nosalty.hu/nosalty/images/recipes/lq/S7/spenot-fozelek-egyszeruen.jpeg?w=1200&amp;h=920&amp;s=8945d2ec37af2dc78c144e03ff981a66</t>
+  </si>
+  <si>
+    <t>https://pampuska.com/wp-content/uploads/2019/08/tejfolos_zoldbabfozelek_mirelitbol.jpg</t>
+  </si>
+  <si>
+    <t>https://img-global.cpcdn.com/recipes/884989e77e6415d6/680x482cq70/egyszeru-tojasleves-recept-foto.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mindmegette.hu/images/371/Social/lead_Social_husleves-recept.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mindmegette.hu/images/342/Social/lead_Social_gyumolcsleves.jpg</t>
+  </si>
+  <si>
+    <t>https://egytaletelek.hu/wp-content/uploads/fokhagymakremleves-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mindmegette.hu/images/350/Social/lead_Social_mindmegette_hatlapos_suti_recept.jpg</t>
+  </si>
+  <si>
+    <t>https://receptneked.hu/wp-content/uploads/2022/11/IMG_0203-480x299.jpg?v=1670677385</t>
+  </si>
+  <si>
+    <t>https://www.mindmegette.hu/images/373/Social/lead_Social_klasszikus-negerkocka-recept.jpg</t>
+  </si>
+  <si>
+    <t>https://image-api.nosalty.hu/nosalty/images/recipes/Gl/dS/lajcsi-szelet.jpeg?w=1200&amp;h=920&amp;s=b11178ac0bf28368779b1f6ed674c209</t>
+  </si>
+  <si>
+    <t>https://kep.cdn.index.hu/1/0/3872/38724/387244/38724419_2953953_a356c193e3dd74413d5412f867ff1818_wm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mindmegette.hu/images/362/Social/lead_Social_dios-makos-bejgli-recept.jpg</t>
+  </si>
+  <si>
+    <t>https://s7d1.scene7.com/is/image/mcdonalds/termeklista_kepek_sajtburger:1-3-product-tile-desktop?wid=829&amp;hei=515&amp;dpr=off</t>
+  </si>
+  <si>
+    <t>https://s7d1.scene7.com/is/image/mcdonalds/termeklista_kepek_extra_cheesy_sajtburger:1-3-product-tile-desktop?wid=829&amp;hei=515&amp;dpr=off</t>
+  </si>
+  <si>
+    <t>https://s7d1.scene7.com/is/image/mcdonalds/termeklista_kepek_bigmac:1-3-product-tile-desktop?wid=829&amp;hei=515&amp;dpr=off</t>
+  </si>
+  <si>
+    <t>https://s7d1.scene7.com/is/image/mcdonalds/DIG_122_Weboldal_Termekkep_Szendvics_Dupla_BigMac_832x822:1-3-product-tile-desktop?wid=829&amp;hei=515&amp;dpr=off</t>
+  </si>
+  <si>
+    <t>https://amrestcdn.azureedge.net/kfc-web-ordering/KFC_HUN/07_Boxok/Delivery/440x440/kfc_hun_cheeseburger_box_440x440.png</t>
+  </si>
+  <si>
+    <t>https://amrestcdn.azureedge.net/kfc-web-ordering/KFC_HUN/24_Egyedi_Kuponajanlatok/440x440/kfc_app_kupon_2grander_440x440.png</t>
+  </si>
+  <si>
+    <t>https://sawepecomcdn.blob.core.windows.net/kfc-web-ordering/KFC_HUN/19_Original_Burgers/440x440/kfc_hun_zinger_440x440.png</t>
+  </si>
+  <si>
+    <t>https://burgerking.hu/sites/burgerking.hu/files/480788827-bk_web_cheddarcheeseringlover_500x540px.png</t>
+  </si>
+  <si>
+    <t>https://burgerking.hu/sites/burgerking.hu/files/BK_Web_ChickenBaconKing_fenyes_500x540px.png</t>
+  </si>
+  <si>
+    <t>https://burgerking.hu/sites/burgerking.hu/files/BK_Web_BaconKing_fenyes_500x540px.png</t>
+  </si>
+  <si>
+    <t>https://burgerking.hu/sites/burgerking.hu/files/BK_Web_ChickenNuggetsBurger_500x540px.png</t>
+  </si>
+  <si>
+    <t>https://burgerking.hu/sites/burgerking.hu/files/BK_Web_ChiliCheeseCrispyChicken_500x540px.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -665,7 +806,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -980,22 +1120,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1079,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1102,31 +1242,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1206,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1226,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1246,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -1286,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -1306,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -1326,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -1346,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>179</v>
       </c>
@@ -1368,15 +1508,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A12" r:id="rId9"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId10"/>
@@ -1384,19 +1524,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -1410,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1424,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>56</v>
       </c>
@@ -1438,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -1452,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -1466,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -1480,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
@@ -1494,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
@@ -1508,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -1522,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
@@ -1538,70 +1678,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A6" r:id="rId8"/>
-    <hyperlink ref="A8" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A4" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A6" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1612,25 +1752,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1646,7 +1786,7 @@
       <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1">
         <v>36101234567</v>
       </c>
       <c r="G1">
@@ -1668,7 +1808,7 @@
         <v>"Szia"</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1703,7 +1843,7 @@
         <v>""</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1738,7 +1878,7 @@
         <v>""</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1776,7 +1916,7 @@
         <v>"ASDF"</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1792,7 +1932,7 @@
       <c r="E5" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>36106567465</v>
       </c>
       <c r="G5">
@@ -1811,7 +1951,7 @@
         <v>""</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1827,7 +1967,7 @@
       <c r="E6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>36202345678</v>
       </c>
       <c r="G6">
@@ -1846,7 +1986,7 @@
         <v>""</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1862,7 +2002,7 @@
       <c r="E7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>36101234567</v>
       </c>
       <c r="G7">
@@ -1884,7 +2024,7 @@
         <v>"Reptééér"</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1900,7 +2040,7 @@
       <c r="E8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>36205246345</v>
       </c>
       <c r="G8">
@@ -1919,7 +2059,7 @@
         <v>""</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1935,7 +2075,7 @@
       <c r="E9" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>36104263572</v>
       </c>
       <c r="G9">
@@ -1954,7 +2094,7 @@
         <v>""</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1970,7 +2110,7 @@
       <c r="E10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>36205321425</v>
       </c>
       <c r="G10">
@@ -1989,7 +2129,7 @@
         <v>""</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2005,7 +2145,7 @@
       <c r="E11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>36302342452</v>
       </c>
       <c r="G11">
@@ -2027,7 +2167,7 @@
         <v>"404"</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2043,7 +2183,7 @@
       <c r="E12" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>36706544357</v>
       </c>
       <c r="G12">
@@ -2069,21 +2209,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G60"/>
+    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="111.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="150.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2106,8 +2248,15 @@
         <f>""""&amp;B1&amp;""""</f>
         <v>"Hawaii pizza"</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="str">
+        <f>"UPDATE `foods` SET `img_src`='"&amp;I1&amp;"' WHERE id="&amp;H1&amp;";"</f>
+        <v>UPDATE `foods` SET `img_src`='' WHERE id=1;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2130,8 +2279,15 @@
         <f t="shared" ref="G2:G60" si="0">""""&amp;B2&amp;""""</f>
         <v>"Hawaii pizza"</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J55" si="1">"UPDATE `foods` SET `img_src`='"&amp;I2&amp;"' WHERE id="&amp;H2&amp;";"</f>
+        <v>UPDATE `foods` SET `img_src`='' WHERE id=2;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2154,8 +2310,15 @@
         <f t="shared" si="0"/>
         <v>"Hawaii pizza"</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='' WHERE id=3;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2178,8 +2341,15 @@
         <f t="shared" si="0"/>
         <v>"Hawaii pizza extra ananásszal"</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='' WHERE id=4;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2202,8 +2372,18 @@
         <f t="shared" si="0"/>
         <v>"Sonkás pizza"</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://trofeaonline.com/integ_pictures/NPIZ02_01.jpg' WHERE id=5;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2226,8 +2406,18 @@
         <f t="shared" si="0"/>
         <v>"Sonkás-Gombás pizza"</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://admin.kemencespizzeria.hu/media/products/201/201424/large/sonkas-gombas.png' WHERE id=6;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2250,8 +2440,18 @@
         <f t="shared" si="0"/>
         <v>"Sonkás-Kukoricás pizza"</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.tunderkonyha.hu/sites/default/files/sonkas-kukoricas_pizza.jpg' WHERE id=7;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2274,8 +2474,18 @@
         <f t="shared" si="0"/>
         <v>"Szalámis pizza"</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://pizzaflorida.hu/wp-content/uploads/2021/01/Szalamis.jpg' WHERE id=8;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2298,8 +2508,18 @@
         <f t="shared" si="0"/>
         <v>"BBQ pizza"</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://suebeehomemaker.com/wp-content/uploads/2021/08/bbq-chicken-bacon-pizza-6.jpg' WHERE id=9;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2322,8 +2542,18 @@
         <f t="shared" si="0"/>
         <v>"Vegán pizza"</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://streetkitchen.hu/wp-content/uploads/2020/04/4-feltetes-vega-pizza-2.jpg' WHERE id=10;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2346,8 +2576,18 @@
         <f t="shared" si="0"/>
         <v>"Négysajtos pizza"</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.finomvilag.com/wp-content/uploads/2022/11/Konnyu-olasz-negy-sajtos-pizza-parmezannal-es-mozzarellaval.jpg.webp' WHERE id=11;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2370,8 +2610,18 @@
         <f t="shared" si="0"/>
         <v>"Tonhalas pizza"</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>197</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSTUjqDGPrfJVhdHMkJOQUP2RPIsCK8DX_kXA&amp;usqp=CAU' WHERE id=12;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2394,8 +2644,18 @@
         <f t="shared" si="0"/>
         <v>"Mexikói csirkés tészta"</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://cdn.gastrohobbi.hu/wp-content/uploads/2017/10/IMG_7737.jpg' WHERE id=13;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2418,8 +2678,18 @@
         <f t="shared" si="0"/>
         <v>"Bolognai tészta"</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://img-global.cpcdn.com/recipes/25511bd4a1a6c39d/1200x630cq70/photo.jpg' WHERE id=14;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2442,8 +2712,18 @@
         <f t="shared" si="0"/>
         <v>"Milánói tészta"</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>200</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/336/Social/lead_Social_milani-spagetti.jpg' WHERE id=15;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2466,8 +2746,18 @@
         <f t="shared" si="0"/>
         <v>"Carbonara tészta"</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/373/Social/lead_Social_carbonara-spagetti-recept.jpg' WHERE id=16;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2490,8 +2780,15 @@
         <f t="shared" si="0"/>
         <v>"Cékla-Feta krémes tészta"</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='' WHERE id=17;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2514,8 +2811,18 @@
         <f t="shared" si="0"/>
         <v>"Babgulyás"</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://assets.unileversolutions.com/recipes-v2/228126.jpg' WHERE id=18;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2538,8 +2845,18 @@
         <f t="shared" si="0"/>
         <v>"Babgulyás"</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://assets.unileversolutions.com/recipes-v2/228126.jpg' WHERE id=19;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2562,8 +2879,18 @@
         <f t="shared" si="0"/>
         <v>"Csirkepöri nokedlivel"</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://mesterszakacs.hu/receptkepek/800/600/egyszeru-csirkeporkolt-5311.jpg' WHERE id=20;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2586,8 +2913,21 @@
         <f t="shared" si="0"/>
         <v>"Noki-Pöri"</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://mesterszakacs.hu/receptkepek/800/600/egyszeru-csirkeporkolt-5311.jpg' WHERE id=21;</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2610,8 +2950,18 @@
         <f t="shared" si="0"/>
         <v>"Tökfőzelék"</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://egytaletelek.hu/wp-content/uploads/Tokfozelek-1.jpg' WHERE id=22;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2634,8 +2984,18 @@
         <f t="shared" si="0"/>
         <v>"Hagymás bab"</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://egytaletelek.hu/wp-content/uploads/hagymas-bab.jpg' WHERE id=23;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2658,8 +3018,18 @@
         <f t="shared" si="0"/>
         <v>"Lencsefőzelék"</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://kep.cdn.index.hu/1/0/3473/34737/347378/34737803_2659107_345ae5cebb7080536f217909627b6e15_wm.jpg' WHERE id=24;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2682,8 +3052,18 @@
         <f t="shared" si="0"/>
         <v>"Krumplifőzelék"</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/379/M/lead_M_burgonya-fozelek-recept.jpg' WHERE id=25;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2706,8 +3086,18 @@
         <f t="shared" si="0"/>
         <v>"Spenótfőzelék"</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://image-api.nosalty.hu/nosalty/images/recipes/lq/S7/spenot-fozelek-egyszeruen.jpeg?w=1200&amp;h=920&amp;s=8945d2ec37af2dc78c144e03ff981a66' WHERE id=26;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>9</v>
       </c>
@@ -2730,8 +3120,18 @@
         <f t="shared" si="0"/>
         <v>"Zöldbabfőzelék"</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://pampuska.com/wp-content/uploads/2019/08/tejfolos_zoldbabfozelek_mirelitbol.jpg' WHERE id=27;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2754,8 +3154,18 @@
         <f t="shared" si="0"/>
         <v>"Tojásleves"</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://img-global.cpcdn.com/recipes/884989e77e6415d6/680x482cq70/egyszeru-tojasleves-recept-foto.jpg' WHERE id=28;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2778,8 +3188,18 @@
         <f t="shared" si="0"/>
         <v>"Húsleves"</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/371/Social/lead_Social_husleves-recept.jpg' WHERE id=29;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2802,8 +3222,18 @@
         <f t="shared" si="0"/>
         <v>"Húsleves"</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>212</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/371/Social/lead_Social_husleves-recept.jpg' WHERE id=30;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2826,8 +3256,18 @@
         <f t="shared" si="0"/>
         <v>"Húsleves"</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/371/Social/lead_Social_husleves-recept.jpg' WHERE id=31;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -2850,8 +3290,18 @@
         <f t="shared" si="0"/>
         <v>"Gyümileves"</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/342/Social/lead_Social_gyumolcsleves.jpg' WHERE id=32;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -2874,8 +3324,18 @@
         <f t="shared" si="0"/>
         <v>"Gyümölcsleves"</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/342/Social/lead_Social_gyumolcsleves.jpg' WHERE id=33;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2898,8 +3358,18 @@
         <f t="shared" si="0"/>
         <v>"Fokhagymakrémleves"</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://egytaletelek.hu/wp-content/uploads/fokhagymakremleves-1.jpg' WHERE id=34;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2922,8 +3392,18 @@
         <f t="shared" si="0"/>
         <v>"Fokhagymarémleves"</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://egytaletelek.hu/wp-content/uploads/fokhagymakremleves-1.jpg' WHERE id=35;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2946,8 +3426,18 @@
         <f t="shared" si="0"/>
         <v>"Hatlapos"</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s">
+        <v>215</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/350/Social/lead_Social_mindmegette_hatlapos_suti_recept.jpg' WHERE id=36;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2970,8 +3460,18 @@
         <f t="shared" si="0"/>
         <v>"Tizenkétlapos"</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://receptneked.hu/wp-content/uploads/2022/11/IMG_0203-480x299.jpg?v=1670677385' WHERE id=37;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2994,8 +3494,18 @@
         <f t="shared" si="0"/>
         <v>"Négerkocka"</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s">
+        <v>217</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/373/Social/lead_Social_klasszikus-negerkocka-recept.jpg' WHERE id=38;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3018,8 +3528,18 @@
         <f t="shared" si="0"/>
         <v>"Lajcsi szelet"</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>39</v>
+      </c>
+      <c r="I39" t="s">
+        <v>218</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://image-api.nosalty.hu/nosalty/images/recipes/Gl/dS/lajcsi-szelet.jpeg?w=1200&amp;h=920&amp;s=b11178ac0bf28368779b1f6ed674c209' WHERE id=39;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6</v>
       </c>
@@ -3042,8 +3562,18 @@
         <f t="shared" si="0"/>
         <v>"Tiramisu"</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://kep.cdn.index.hu/1/0/3872/38724/387244/38724419_2953953_a356c193e3dd74413d5412f867ff1818_wm.jpg' WHERE id=40;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9</v>
       </c>
@@ -3066,8 +3596,18 @@
         <f t="shared" si="0"/>
         <v>"Tiramisu"</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s">
+        <v>219</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://kep.cdn.index.hu/1/0/3872/38724/387244/38724419_2953953_a356c193e3dd74413d5412f867ff1818_wm.jpg' WHERE id=41;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>9</v>
       </c>
@@ -3090,8 +3630,18 @@
         <f t="shared" si="0"/>
         <v>"Bejgli"</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s">
+        <v>220</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://www.mindmegette.hu/images/362/Social/lead_Social_dios-makos-bejgli-recept.jpg' WHERE id=42;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10</v>
       </c>
@@ -3114,8 +3664,18 @@
         <f t="shared" si="0"/>
         <v>"Sajtburesz"</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://s7d1.scene7.com/is/image/mcdonalds/termeklista_kepek_sajtburger:1-3-product-tile-desktop?wid=829&amp;hei=515&amp;dpr=off' WHERE id=43;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>11</v>
       </c>
@@ -3138,8 +3698,18 @@
         <f t="shared" si="0"/>
         <v>"Sajtburesz"</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>44</v>
+      </c>
+      <c r="I44" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://s7d1.scene7.com/is/image/mcdonalds/termeklista_kepek_sajtburger:1-3-product-tile-desktop?wid=829&amp;hei=515&amp;dpr=off' WHERE id=44;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10</v>
       </c>
@@ -3162,8 +3732,18 @@
         <f t="shared" si="0"/>
         <v>"Dupla Sajtburesz"</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>45</v>
+      </c>
+      <c r="I45" t="s">
+        <v>222</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://s7d1.scene7.com/is/image/mcdonalds/termeklista_kepek_extra_cheesy_sajtburger:1-3-product-tile-desktop?wid=829&amp;hei=515&amp;dpr=off' WHERE id=45;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>11</v>
       </c>
@@ -3186,8 +3766,18 @@
         <f t="shared" si="0"/>
         <v>"Big Mac"</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://s7d1.scene7.com/is/image/mcdonalds/termeklista_kepek_bigmac:1-3-product-tile-desktop?wid=829&amp;hei=515&amp;dpr=off' WHERE id=46;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11</v>
       </c>
@@ -3210,8 +3800,18 @@
         <f t="shared" si="0"/>
         <v>"Dupla Big Mac"</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://s7d1.scene7.com/is/image/mcdonalds/DIG_122_Weboldal_Termekkep_Szendvics_Dupla_BigMac_832x822:1-3-product-tile-desktop?wid=829&amp;hei=515&amp;dpr=off' WHERE id=47;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7</v>
       </c>
@@ -3234,8 +3834,18 @@
         <f t="shared" si="0"/>
         <v>"Sajtburger"</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>48</v>
+      </c>
+      <c r="I48" t="s">
+        <v>225</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://amrestcdn.azureedge.net/kfc-web-ordering/KFC_HUN/07_Boxok/Delivery/440x440/kfc_hun_cheeseburger_box_440x440.png' WHERE id=48;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>7</v>
       </c>
@@ -3258,8 +3868,18 @@
         <f t="shared" si="0"/>
         <v>"Zinger burger"</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>227</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://sawepecomcdn.blob.core.windows.net/kfc-web-ordering/KFC_HUN/19_Original_Burgers/440x440/kfc_hun_zinger_440x440.png' WHERE id=49;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -3282,8 +3902,18 @@
         <f t="shared" si="0"/>
         <v>"Grander burger"</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50" t="s">
+        <v>226</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://amrestcdn.azureedge.net/kfc-web-ordering/KFC_HUN/24_Egyedi_Kuponajanlatok/440x440/kfc_app_kupon_2grander_440x440.png' WHERE id=50;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3306,8 +3936,18 @@
         <f t="shared" si="0"/>
         <v>"Cheddar Cheese Ring Lover"</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>51</v>
+      </c>
+      <c r="I51" t="s">
+        <v>228</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://burgerking.hu/sites/burgerking.hu/files/480788827-bk_web_cheddarcheeseringlover_500x540px.png' WHERE id=51;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>8</v>
       </c>
@@ -3330,8 +3970,18 @@
         <f t="shared" si="0"/>
         <v>"Chicken Bacon King"</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>52</v>
+      </c>
+      <c r="I52" t="s">
+        <v>229</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://burgerking.hu/sites/burgerking.hu/files/BK_Web_ChickenBaconKing_fenyes_500x540px.png' WHERE id=52;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>8</v>
       </c>
@@ -3354,8 +4004,18 @@
         <f t="shared" si="0"/>
         <v>"Bacon King"</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>53</v>
+      </c>
+      <c r="I53" t="s">
+        <v>230</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://burgerking.hu/sites/burgerking.hu/files/BK_Web_BaconKing_fenyes_500x540px.png' WHERE id=53;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>8</v>
       </c>
@@ -3378,8 +4038,18 @@
         <f t="shared" si="0"/>
         <v>"Nuggets Burger"</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>54</v>
+      </c>
+      <c r="I54" t="s">
+        <v>231</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://burgerking.hu/sites/burgerking.hu/files/BK_Web_ChickenNuggetsBurger_500x540px.png' WHERE id=54;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>8</v>
       </c>
@@ -3402,8 +4072,18 @@
         <f t="shared" si="0"/>
         <v>"Chili Cheese Crispy Chicken"</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>55</v>
+      </c>
+      <c r="I55" t="s">
+        <v>232</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE `foods` SET `img_src`='https://burgerking.hu/sites/burgerking.hu/files/BK_Web_ChiliCheeseCrispyChicken_500x540px.png' WHERE id=55;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>12</v>
       </c>
@@ -3426,8 +4106,11 @@
         <f t="shared" si="0"/>
         <v>"Csepregi kolesz menü"</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>12</v>
       </c>
@@ -3450,8 +4133,11 @@
         <f t="shared" si="0"/>
         <v>"Kelbimbó főzelék"</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12</v>
       </c>
@@ -3474,8 +4160,11 @@
         <f t="shared" si="0"/>
         <v>"Tökfőzelék"</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12</v>
       </c>
@@ -3498,8 +4187,11 @@
         <f t="shared" si="0"/>
         <v>"Kiwis pizza"</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -3522,8 +4214,14 @@
         <f t="shared" si="0"/>
         <v>"Csirkemáj"</v>
       </c>
+      <c r="H60">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I14" r:id="rId1" xr:uid="{0E465159-AB70-47A9-8EAC-36E9C96BB024}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>